--- a/stocks1.xlsx
+++ b/stocks1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\PassionProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Code\PassionProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE90264-E69E-4318-9192-563C231EDC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95566983-EA34-43A7-8A99-160171D32B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12377" xr2:uid="{E15E48C3-65DD-4296-8903-BC04C07DCBDB}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{E15E48C3-65DD-4296-8903-BC04C07DCBDB}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>元太 (優) 8069</t>
+    <t>亞泥</t>
   </si>
   <si>
-    <t>環球晶 6488</t>
-  </si>
-  <si>
-    <t>力旺電子 3529</t>
+    <t>台泥</t>
   </si>
 </sst>
 </file>
@@ -80,27 +77,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -109,10 +91,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -449,15 +431,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D47D9F9-9AD6-42B1-9839-15A8BB6C3884}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD100"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="29.6" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -465,10 +447,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1">
-        <v>8069</v>
+        <v>1102</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="29.6" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -476,18 +458,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>6488</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="29.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="1">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3529</v>
+        <v>1101</v>
       </c>
     </row>
   </sheetData>
